--- a/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
+++ b/SuppXLS/Scen_RES_SHARE_50%_24_7.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_IND_8760\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IPoY45/Shared Documents/CFE/Models/CFE_NL_IND_8760/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68084E2-AAAF-4F49-99B7-97D8CF032371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C68084E2-AAAF-4F49-99B7-97D8CF032371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD9FD7D8-593C-40B0-93D7-EC96117EF962}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS_1" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -58,7 +61,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Year</t>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
   </si>
   <si>
     <t>Pset_PN</t>
@@ -70,22 +76,13 @@
     <t>Attribute</t>
   </si>
   <si>
+    <t>Year</t>
+  </si>
+  <si>
     <t>LimType</t>
   </si>
   <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
     <t>NL</t>
-  </si>
-  <si>
-    <t>FLO_SHAR</t>
   </si>
   <si>
     <t>ANNUAL</t>
@@ -95,6 +92,12 @@
   </si>
   <si>
     <t>ELC_IND_RES_SUM</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -4444,18 +4447,18 @@
   <dimension ref="B1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
@@ -4464,50 +4467,50 @@
     <row r="2" spans="2:9"/>
     <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15" thickBot="1">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>2030</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H6" s="5">
         <v>0.5</v>
@@ -4521,8 +4524,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100478D9ACB663A0B44ABC718894EB3A5FF" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bd2c708532c000ed42093a134732e2a3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45d80b71-d53a-4925-9636-d69011c62a0b" xmlns:ns3="853a583b-5a39-49db-b57b-0c8a2ee0f312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9084b1ab62d6863821126f95089e176" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="853a583b-5a39-49db-b57b-0c8a2ee0f312" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="45d80b71-d53a-4925-9636-d69011c62a0b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100478D9ACB663A0B44ABC718894EB3A5FF" ma:contentTypeVersion="12" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="5851258cc5066775e2233077090f9598">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45d80b71-d53a-4925-9636-d69011c62a0b" xmlns:ns3="853a583b-5a39-49db-b57b-0c8a2ee0f312" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ba2f572c61682d4efb87b423657bb10" ns2:_="" ns3:_="">
     <xsd:import namespace="45d80b71-d53a-4925-9636-d69011c62a0b"/>
     <xsd:import namespace="853a583b-5a39-49db-b57b-0c8a2ee0f312"/>
     <xsd:element name="properties">
@@ -4572,7 +4586,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -4631,8 +4645,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -4721,7 +4735,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4730,25 +4744,31 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="853a583b-5a39-49db-b57b-0c8a2ee0f312" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="45d80b71-d53a-4925-9636-d69011c62a0b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FDAF3C6-D3F2-406C-A3EF-6A960F1C1D6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D23FE381-9A83-4449-ABE0-27EDFF8D7A84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="45d80b71-d53a-4925-9636-d69011c62a0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="853a583b-5a39-49db-b57b-0c8a2ee0f312"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C9EA45-0206-47CF-9BAF-D3D0102ADA13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE9BDD88-EEEF-4375-A708-6EFC357DB43E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D23FE381-9A83-4449-ABE0-27EDFF8D7A84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C9EA45-0206-47CF-9BAF-D3D0102ADA13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>